--- a/src/main/resources/temp/机构模板.xlsx
+++ b/src/main/resources/temp/机构模板.xlsx
@@ -60,7 +60,17 @@
     <t>正常</t>
   </si>
   <si>
-    <t>桂</t>
+    <r>
+      <t>桂</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
   </si>
   <si>
     <t>南宁市中级人民法院</t>
@@ -4070,10 +4080,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -4119,12 +4129,19 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4139,21 +4156,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4167,22 +4185,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4199,21 +4217,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4236,6 +4239,14 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -4251,9 +4262,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4261,7 +4271,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4282,7 +4292,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4294,13 +4424,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4318,145 +4460,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4522,11 +4532,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4564,21 +4595,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -4586,6 +4602,15 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4604,166 +4629,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="32" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
@@ -5128,8 +5138,8 @@
   <sheetPr/>
   <dimension ref="A1:I3199"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3196" workbookViewId="0">
-      <selection activeCell="B3203" sqref="B3203"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -5202,7 +5212,7 @@
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="5" t="s">
         <v>14</v>
       </c>
       <c r="I3" s="4"/>
